--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="7770"/>
+    <workbookView windowHeight="19470"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>技能id</t>
   </si>
@@ -30,7 +30,7 @@
     <t>最大帧</t>
   </si>
   <si>
-    <t>动画名称</t>
+    <t>锁定等级</t>
   </si>
   <si>
     <t>帧事件 index</t>
@@ -60,7 +60,7 @@
     <t>maxFrame</t>
   </si>
   <si>
-    <t>animName</t>
+    <t>lockLevel</t>
   </si>
   <si>
     <t>event1</t>
@@ -93,37 +93,19 @@
     <t>雷泽</t>
   </si>
   <si>
-    <t>fistRightGo</t>
-  </si>
-  <si>
     <t>共工</t>
   </si>
   <si>
-    <t>fistLeftGo</t>
-  </si>
-  <si>
     <t>妲己</t>
   </si>
   <si>
-    <t>leftLegGo</t>
-  </si>
-  <si>
     <t>盘古</t>
   </si>
   <si>
-    <t>beHit</t>
-  </si>
-  <si>
     <t>伏羲</t>
   </si>
   <si>
-    <t>lieDown</t>
-  </si>
-  <si>
     <t>女娲</t>
-  </si>
-  <si>
-    <t>bowRight</t>
   </si>
   <si>
     <t>分身id</t>
@@ -347,10 +329,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -390,21 +372,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,53 +410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,24 +424,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +469,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -553,12 +535,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,163 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,8 +752,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,17 +790,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -824,32 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -864,16 +828,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,136 +864,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1397,7 +1379,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1562,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -1691,8 +1673,8 @@
       <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
+      <c r="D5" s="4">
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1710,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4">
-        <v>1001</v>
+        <v>100007</v>
       </c>
       <c r="K5" s="4">
         <v>3</v>
@@ -1751,13 +1733,13 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1775,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4">
-        <v>1001</v>
+        <v>100008</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
@@ -1816,13 +1798,13 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
+      <c r="D7" s="4">
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1840,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>1001</v>
+        <v>100009</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -1881,13 +1863,13 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1905,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="4">
-        <v>1001</v>
+        <v>100007</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -1946,13 +1928,13 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
+      <c r="D9" s="4">
+        <v>1</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1970,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="4">
-        <v>1001</v>
+        <v>100008</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -2011,13 +1993,13 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
+      <c r="D10" s="4">
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2035,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="4">
-        <v>1001</v>
+        <v>100009</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -2116,96 +2098,96 @@
   <sheetData>
     <row r="1" ht="33.75" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2220,40 +2202,40 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>7</v>
@@ -2274,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>7</v>
@@ -2380,82 +2362,82 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" ht="33.75" spans="1:28">
@@ -2463,7 +2445,7 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <v>1085001</v>
@@ -2475,7 +2457,7 @@
         <v>2301</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4">
         <v>6180006</v>
@@ -2493,7 +2475,7 @@
         <v>70108001</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M5" s="4">
         <v>70101001</v>
@@ -2538,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AB5" s="4">
         <v>71004</v>
@@ -2549,7 +2531,7 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4">
         <v>1085002</v>
@@ -2561,7 +2543,7 @@
         <v>2302</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4">
         <v>6180006</v>
@@ -2579,7 +2561,7 @@
         <v>70208001</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M6" s="4">
         <v>70201001</v>
@@ -2624,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="4">
         <v>71005</v>
@@ -2635,7 +2617,7 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4">
         <v>1085003</v>
@@ -2647,7 +2629,7 @@
         <v>2303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" s="4">
         <v>6180006</v>
@@ -2665,7 +2647,7 @@
         <v>70308001</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" s="4">
         <v>70301001</v>
@@ -2710,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="4">
         <v>71006</v>
@@ -2721,7 +2703,7 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4">
         <v>1085004</v>
@@ -2747,7 +2729,7 @@
         <v>70408001</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M8" s="4">
         <v>70401001</v>
@@ -2792,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB8" s="4"/>
     </row>
@@ -2801,7 +2783,7 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4">
         <v>1085005</v>
@@ -2827,7 +2809,7 @@
         <v>70508001</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M9" s="4">
         <v>70501001</v>
@@ -2872,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="4"/>
     </row>
@@ -2881,7 +2863,7 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4">
         <v>1085006</v>
@@ -2907,7 +2889,7 @@
         <v>70608001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M10" s="4">
         <v>70601001</v>
@@ -2952,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AB10" s="4"/>
     </row>

--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="19470"/>
+    <workbookView windowWidth="25245" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -329,9 +329,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -372,7 +372,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,14 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,54 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,39 +484,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,37 +535,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,133 +691,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,30 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,6 +760,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +808,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -828,34 +846,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,136 +864,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -1698,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1745,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>1001</v>
+        <v>100002</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -1757,16 +1757,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="4">
-        <v>100008</v>
+        <v>100005</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
       </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>1001</v>
+        <v>100003</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -1828,10 +1828,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1875,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
-        <v>1001</v>
+        <v>100004</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1940,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>1001</v>
+        <v>100005</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1958,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="L9" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2005,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
-        <v>1001</v>
+        <v>100006</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" s="4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>

--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25245" windowHeight="11865"/>
+    <workbookView windowWidth="25005" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -331,8 +331,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -378,16 +378,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,11 +408,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,8 +423,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,15 +447,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,13 +467,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,23 +495,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,25 +535,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,151 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,6 +749,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -772,90 +846,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,133 +867,133 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1736,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>

--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\demo\Assets\Res\Arts\ExcelConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BA4CA23-B41E-449D-B544-1C1EC41E8CBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25005" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25005" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
     <sheet name="AvatarConfig备份" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AvatarConfig备份!$A$4:$Z$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillConfig!$A$4:$AC$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AvatarConfig备份!$A$4:$Z$10</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>技能id</t>
   </si>
@@ -88,24 +94,6 @@
   </si>
   <si>
     <t>eventId3</t>
-  </si>
-  <si>
-    <t>雷泽</t>
-  </si>
-  <si>
-    <t>共工</t>
-  </si>
-  <si>
-    <t>妲己</t>
-  </si>
-  <si>
-    <t>盘古</t>
-  </si>
-  <si>
-    <t>伏羲</t>
-  </si>
-  <si>
-    <t>女娲</t>
   </si>
   <si>
     <t>分身id</t>
@@ -322,19 +310,29 @@
   </si>
   <si>
     <t>avatarEffect5006</t>
+  </si>
+  <si>
+    <t>击飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前击退</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线飞行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,150 +363,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,192 +411,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -748,259 +450,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1026,64 +486,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1370,19 +789,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="14" width="14.625" customWidth="1"/>
     <col min="15" max="16" width="20.625" customWidth="1"/>
@@ -1403,7 +822,7 @@
     <col min="34" max="37" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +887,7 @@
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +952,7 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1017,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1663,12 +1082,12 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
+      <c r="B5" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -1728,12 +1147,12 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
+      <c r="B6" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="4">
         <v>60</v>
@@ -1760,7 +1179,7 @@
         <v>100005</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L6" s="4">
         <v>6</v>
@@ -1793,12 +1212,12 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
@@ -1810,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>100003</v>
@@ -1822,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>100009</v>
+        <v>100016</v>
       </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>6</v>
       </c>
       <c r="M7" s="4">
-        <v>100001</v>
+        <v>100003</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1858,12 +1277,12 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
+      <c r="B8" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
@@ -1923,12 +1342,12 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="4">
         <v>20</v>
@@ -1988,12 +1407,12 @@
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="4">
         <v>20</v>
@@ -2054,25 +1473,22 @@
       <c r="AK10" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AC10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <autoFilter ref="A4:AC10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD10"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -2096,179 +1512,179 @@
     <col min="28" max="28" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:28">
+    <row r="1" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>55</v>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2362,90 +1778,90 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="5" ht="33.75" spans="1:28">
+    <row r="5" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>1085001</v>
@@ -2457,7 +1873,7 @@
         <v>2301</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4">
         <v>6180006</v>
@@ -2475,7 +1891,7 @@
         <v>70108001</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M5" s="4">
         <v>70101001</v>
@@ -2520,18 +1936,18 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="4">
         <v>71004</v>
       </c>
     </row>
-    <row r="6" ht="33.75" spans="1:28">
+    <row r="6" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
         <v>1085002</v>
@@ -2543,7 +1959,7 @@
         <v>2302</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4">
         <v>6180006</v>
@@ -2561,7 +1977,7 @@
         <v>70208001</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" s="4">
         <v>70201001</v>
@@ -2606,18 +2022,18 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AB6" s="4">
         <v>71005</v>
       </c>
     </row>
-    <row r="7" ht="33.75" spans="1:28">
+    <row r="7" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <v>1085003</v>
@@ -2629,7 +2045,7 @@
         <v>2303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G7" s="4">
         <v>6180006</v>
@@ -2647,7 +2063,7 @@
         <v>70308001</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M7" s="4">
         <v>70301001</v>
@@ -2692,18 +2108,18 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="4">
         <v>71006</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4">
         <v>1085004</v>
@@ -2729,7 +2145,7 @@
         <v>70408001</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M8" s="4">
         <v>70401001</v>
@@ -2774,16 +2190,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4">
         <v>1085005</v>
@@ -2809,7 +2225,7 @@
         <v>70508001</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M9" s="4">
         <v>70501001</v>
@@ -2854,16 +2270,16 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4">
         <v>1085006</v>
@@ -2889,7 +2305,7 @@
         <v>70608001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M10" s="4">
         <v>70601001</v>
@@ -2934,16 +2350,14 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB10" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A4:Z10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>